--- a/ComparisonAgent_Output/DI Azure Synapse To Bigquery Doc&Analyze_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Azure Synapse To Bigquery Doc&Analyze_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,19 +9,19 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Table_2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Table_3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Table_4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Component_Documentation_ETL_Pro" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_Analyzer_ETL_Complexi" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_Migration_Plan_Cost_E" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="4_DIMENSIONBASED_COMPARISON" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="5_OVERALL_COMPARISON_RESULTS" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="6_FILELEVEL_COMPARISON_COMPONEN" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Component_Documentation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Component_Analyzer" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_Plan" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Overall_Migration_Risk_Level_LO" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Table_5" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Table_6" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Table_4" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="10_FINAL_RECOMMENDATION_CLOSING" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table_5" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 03:31:50</t>
+          <t>2026-01-12 04:01:00</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="43" customWidth="1" min="2" max="2"/>
     <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,17 +562,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-8 / -12.3%</t>
+          <t>+3 / +7.1%</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.2%</t>
+          <t>93.5%</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>93/100</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -829,17 +829,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+8 / +12.3%</t>
+          <t>-3 / -7.3%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.1%</t>
+          <t>90.8%</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>91/100</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,10 +1038,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1069,7 +1069,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Minor Format/Structure Diff</t>
+          <t>Documentation Gaps</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1079,12 +1079,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cosmetic changes in documentation and scoring</t>
+          <t>Minor formatting and explanatory changes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No action required</t>
+          <t>Review for completeness</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost Estimation</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Slight changes in cost breakdown</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Validate against live usage</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1131,7 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="41" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1142,7 +1164,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All business logic and outcomes preserved</t>
+          <t>All business logic preserved</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1181,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Full coverage of validation and audit logic</t>
+          <t>No gaps in validation or transformation</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1198,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No degradation; complexity metrics aligned</t>
+          <t>No identified bottlenecks</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1210,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>All components fully documented</t>
+          <t>Minor formatting changes only</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1232,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All requirements satisfied</t>
+          <t>All dependencies present</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1249,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No conditions; migration can proceed</t>
+          <t>Migration can proceed safely</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1308,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All scores and findings confirm full equivalence</t>
+          <t>Dimension scores and match percentages confirm full equivalence.</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,9 +1356,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1369,7 +1391,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Communicate migration approval and next steps</t>
+          <t>Review documentation formatting for completeness</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1379,7 +1401,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Immediate</t>
+          <t>1 week</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Validate cost breakdown against live usage</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2 weeks</t>
         </is>
       </c>
     </row>
@@ -1402,12 +1446,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
     <col width="48" customWidth="1" min="2" max="2"/>
     <col width="48" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1457,7 +1501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation / ETL Procedure Doc</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1472,12 +1516,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.5%</t>
+          <t>96.2%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1492,14 +1536,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analyzer / ETL Complexity Analysis</t>
+          <t>Analyzer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1514,22 +1558,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±18</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.2%</t>
+          <t>93.5%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>93/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1541,7 +1585,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Migration Plan / Cost &amp; Effort</t>
+          <t>Plan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1561,17 +1605,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.1%</t>
+          <t>90.8%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1598,27 +1642,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Avg ±15 lines</t>
+          <t>Avg ±11 lines</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.6%</t>
+          <t>93.5%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>All components equivalent</t>
+          <t>Equivalent with minor differences</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1794,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1783,7 +1827,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Direct name match, role recognition</t>
+          <t>Direct name/role recognition</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1886,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1892,7 +1936,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Formatting or minor structure only</t>
+          <t>Only formatting or minor structural changes</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1953,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Refactoring, equivalent logic</t>
+          <t>Refactoring with equivalent logic</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1970,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Substantial, same outcomes</t>
+          <t>Substantial differences, same outcomes</t>
         </is>
       </c>
     </row>
@@ -1968,7 +2012,7 @@
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="46" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -2100,7 +2144,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2161,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2139,7 +2183,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2161,7 +2205,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2183,12 +2227,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2254,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2276,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>94/100</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2341,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>137</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-12 / -5.7%</t>
+          <t>+7 / +5.1%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2324,17 +2368,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0 / 0%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2351,17 +2395,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.3 / -4.0%</t>
+          <t>-0.2 / -2.8%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2415,7 +2459,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 files</t>
+          <t>1 file</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2442,7 +2486,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0 files</t>
+          <t>1 file</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2496,12 +2540,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.6%</t>
+          <t>93.5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>High similarity</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="48" customWidth="1" min="2" max="2"/>
     <col width="48" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -2579,7 +2623,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation / ETL Procedure</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2599,12 +2643,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±12</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.5%</t>
+          <t>96.2%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2614,14 +2658,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analyzer / Complexity</t>
+          <t>Analyzer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2641,17 +2685,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±18</t>
+          <t>±11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>94.2%</t>
+          <t>93.5%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>93/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2663,7 +2707,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Migration Plan / Cost</t>
+          <t>Plan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2688,12 +2732,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>92.1%</t>
+          <t>90.8%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2724,7 +2768,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="48" customWidth="1" min="2" max="2"/>
     <col width="48" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2779,17 +2823,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-12 / -15.0%</t>
+          <t>+7 / +12.9%</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2867,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2872,7 +2916,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2894,7 +2938,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2916,7 +2960,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2943,7 +2987,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.5%</t>
+          <t>96.2%</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Azure Synapse To Bigquery Doc&Analyze_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Azure Synapse To Bigquery Doc&Analyze_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,18 +9,18 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table_2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table_3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="4_DIMENSIONBASED_COMPARISON" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="5_OVERALL_COMPARISON_RESULTS" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="6_FILELEVEL_COMPARISON_COMPONEN" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table_2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Component_Documentation" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Component_Analyzer" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Component_Plan" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Overall_Migration_Risk_Level_LO" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Table_4" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="10_FINAL_RECOMMENDATION_CLOSING" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Table_5" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-12 04:01:00</t>
+          <t>2026-01-18 23:18:29</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="43" customWidth="1" min="2" max="2"/>
     <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,17 +562,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+3 / +7.1%</t>
+          <t>+11 / +9.2%</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>94.8%</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>92/100</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-3 / -7.3%</t>
+          <t>+2 / +1.6%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.8%</t>
+          <t>96.1%</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>96/100</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,10 +1038,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
-    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1062,14 +1062,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mitigation Strategy</t>
+          <t>Mitigation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation Gaps</t>
+          <t>Structural Refactoring</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1079,34 +1079,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Minor formatting and explanatory changes</t>
+          <t>Analyzer component shows minor changes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Review for completeness</t>
+          <t>Review change logs</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cost Estimation</t>
+          <t>Documentation Enhancements</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Slight changes in cost breakdown</t>
+          <t>Formatting and comments improved</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Validate against live usage</t>
+          <t>No action needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Audit Trail Integrity</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No changes to audit logic</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No action needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Data Quality Rules</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Validation logic unchanged</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No action needed</t>
         </is>
       </c>
     </row>
@@ -1130,8 +1174,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="41" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1159,12 +1203,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All business logic preserved</t>
+          <t>All matched components are equivalent</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1220,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No gaps in validation or transformation</t>
+          <t>No gaps detected</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1237,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acceptable</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No identified bottlenecks</t>
+          <t>No degradation found</t>
         </is>
       </c>
     </row>
@@ -1210,12 +1254,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minor formatting changes only</t>
+          <t>Improved in AAVA 2.0</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1271,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All dependencies present</t>
+          <t>All required artifacts present</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1293,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Migration can proceed safely</t>
+          <t>Safe to migrate</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1352,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dimension scores and match percentages confirm full equivalence.</t>
+          <t>All components matched one-to-one with high confidence and functional equivalence.</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,9 +1400,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1386,12 +1430,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Review documentation formatting for completeness</t>
+          <t>Proceed with migration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1401,29 +1445,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 week</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Validate cost breakdown against live usage</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Workflow Owner / AAVA Team</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2 weeks</t>
+          <t>Immediate</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1473,7 @@
     <col width="48" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1521,7 +1543,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>98.2%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1531,12 +1553,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1585,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>94.8%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1573,7 +1595,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>92/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1600,27 +1622,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±15</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.8%</t>
+          <t>96.1%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1642,27 +1664,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Avg ±11 lines</t>
+          <t>Avg ±9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>96.4%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Equivalent with minor differences</t>
+          <t>Equivalent/Minor Diff</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,7 +1708,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1764,12 +1786,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Invalid Matches Detected</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Overall Matching Success Rate</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>100.0%</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1828,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1810,48 +1844,48 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Matching Method Used</t>
+          <t>Matching Method</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High (90-100%)</t>
+          <t>High (&gt;=95%)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Direct name/role recognition</t>
+          <t>All gates passed with high confidence</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Medium (70-89%)</t>
+          <t>Medium (85-94%)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Content similarity analysis</t>
+          <t>All gates passed with acceptable confidence</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Low (50-69%)</t>
+          <t>Failed (&lt;85%)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1861,7 +1895,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alphabetical sequential pairing</t>
+          <t>One or more gates failed</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1885,8 +1919,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1914,12 +1948,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Files are identical</t>
+          <t>Identical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No changes whatsoever</t>
+          <t>No changes</t>
         </is>
       </c>
     </row>
@@ -1931,12 +1965,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minimal differences</t>
+          <t>Minimal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Only formatting or minor structural changes</t>
+          <t>Formatting only</t>
         </is>
       </c>
     </row>
@@ -1948,12 +1982,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moderate changes</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Refactoring with equivalent logic</t>
+          <t>Refactoring</t>
         </is>
       </c>
     </row>
@@ -1965,12 +1999,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Significant changes</t>
+          <t>Significant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Substantial differences, same outcomes</t>
+          <t>Same outcomes</t>
         </is>
       </c>
     </row>
@@ -1982,12 +2016,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Major differences</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Requires detailed review</t>
+          <t>Requires review</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No comparison</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Missing file</t>
         </is>
       </c>
     </row>
@@ -2011,8 +2062,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -2046,7 +2097,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Core business rules and calculation outcomes</t>
+          <t>Business rules and outcomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2068,7 +2119,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Technical correctness and modern standards</t>
+          <t>Technical correctness</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2090,7 +2141,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Data processing and transformation logic</t>
+          <t>Data processing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2112,7 +2163,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Decision-making and branching structures</t>
+          <t>Decision-making</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2134,7 +2185,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Exception management and validation</t>
+          <t>Exception management</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2144,7 +2195,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2207,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Efficiency and optimization approaches</t>
+          <t>Efficiency</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2178,12 +2229,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Test completeness and quality</t>
+          <t>Test completeness</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2200,12 +2251,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Code organization and maintainability</t>
+          <t>Code organization</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2222,17 +2273,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comments and explanatory content</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2295,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Overall functional alignment</t>
+          <t>Overall alignment</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2276,7 +2327,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>95/100</t>
         </is>
       </c>
     </row>
@@ -2302,8 +2353,8 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2341,22 +2392,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+7 / +5.1%</t>
+          <t>+7 / +1.8%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Stable</t>
         </is>
       </c>
     </row>
@@ -2368,17 +2419,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0 / 0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2395,17 +2446,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.2 / -2.8%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2432,12 +2483,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 file</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fully equivalent</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2510,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 file</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minimal differences</t>
+          <t>Minor</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2537,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 file</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Refactored</t>
+          <t>Moderate</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2564,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0 files</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2540,12 +2591,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>96.4%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2648,17 +2699,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>98.2%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2690,12 +2741,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>94.8%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>92/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2727,22 +2778,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±15</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>90.8%</t>
+          <t>96.1%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2819,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="48" customWidth="1" min="2" max="2"/>
     <col width="48" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2823,17 +2874,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+7 / +12.9%</t>
+          <t>+7 / +5.3%</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2896,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2867,12 +2918,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2960,7 +3011,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2987,7 +3038,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>98.2%</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3060,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>97/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI Azure Synapse To Bigquery Doc&Analyze_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI Azure Synapse To Bigquery Doc&Analyze_comparison/aava_enterprise_comparison_agent.xlsx
@@ -15,13 +15,14 @@
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Component_Documentation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_Analyzer" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_Analyzer" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Component_Documentation" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Component_Plan" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Table_4" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Table_5" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Overall_Migration_Risk_Level_ME" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Table_4" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Table_5" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,7 +472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-19 00:40:42</t>
+          <t>2026-01-19 01:14:18</t>
         </is>
       </c>
     </row>
@@ -482,7 +483,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -505,9 +506,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="43" customWidth="1" min="2" max="2"/>
-    <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -540,12 +541,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_bigquery_analyzer.txt</t>
+          <t>di_azure_synapse_to_bigquery_documentation.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -562,17 +563,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>107</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-11 / -10.3%</t>
+          <t>+9 (+9.2%)</t>
         </is>
       </c>
     </row>
@@ -606,12 +607,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -628,12 +629,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -655,7 +656,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -677,7 +678,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -699,7 +700,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,7 +727,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>95.8%</t>
+          <t>92.2%</t>
         </is>
       </c>
     </row>
@@ -748,7 +749,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>91/100</t>
         </is>
       </c>
     </row>
@@ -774,7 +775,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -829,17 +830,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-1 / -0.9%</t>
+          <t>+14 (+25.5%)</t>
         </is>
       </c>
     </row>
@@ -873,12 +874,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -895,12 +896,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -922,7 +923,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -944,7 +945,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -966,7 +967,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -993,7 +994,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.3%</t>
+          <t>89.8%</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>84/100</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,21 +1039,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="33" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="49" customWidth="1" min="3" max="3"/>
+    <col width="34" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk Factor</t>
+          <t>Severity</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Risk Level</t>
+          <t>Component</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1062,117 +1064,93 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mitigation</t>
+          <t>Functional Impact</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Migration Impact</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Functional Equivalence</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Plan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All logic preserved</t>
+          <t>Expanded cost estimation and effort breakdown</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No action required</t>
+          <t>Requires validation for accuracy</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Analyzer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Expanded transformation and optimization detail</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No change to business logic</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Low</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No test gaps detected</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No action required</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Performance Profile</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>More detailed mapping and output description</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No change to business logic</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Low</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No performance impact</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>No action required</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Documentation Completeness</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>All documentation present</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>No action required</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Prerequisites Met</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>All migration prerequisites met</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>No action required</t>
         </is>
       </c>
     </row>
@@ -1182,6 +1160,119 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Factor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Plan Expansion</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Additional cost and effort detail needs review</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Validate cost model and effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Documentation Differences</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Minor expansion; no impact</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Accept as is</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Analyzer Detail</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Minor expansion; no impact</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Accept as is</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1196,8 +1287,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1230,7 +1321,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All matched</t>
+          <t>Core ETL logic and mapping equivalent</t>
         </is>
       </c>
     </row>
@@ -1242,12 +1333,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No gaps</t>
+          <t>Minor gaps in documentation and test detail</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1355,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No issues</t>
+          <t>No performance degradation detected</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1367,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>All present</t>
+          <t>Expanded but needs validation</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1389,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All met</t>
+          <t>All files present and compared</t>
         </is>
       </c>
     </row>
@@ -1310,12 +1401,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No risks</t>
+          <t>Pending Plan validation</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1362,7 +1453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>APPROVED</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All files matched one-to-one with full functional equivalence and zero migration risk.</t>
+          <t>Plan requires validation for migration effort and cost estimation accuracy</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>HIGH for Analyzer/Documentation, MEDIUM overall</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Immediate</t>
+          <t>Conditional</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1422,9 +1513,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1452,12 +1543,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proceed with migration</t>
+          <t>Validate Plan component</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1467,7 +1558,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Immediate</t>
+          <t>2 weeks</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1586,7 @@
     <col width="48" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1545,84 +1636,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Analyzer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_bigquery_documentation.txt</t>
+          <t>di_azure_synapse_to_bigquery_analyzer.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±9</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>92/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analyzer</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_bigquery_analyzer.txt</t>
+          <t>di_azure_synapse_to_bigquery_documentation.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.8%</t>
+          <t>92.2%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1644,27 +1735,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.3%</t>
+          <t>89.8%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Needs Review</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>84/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1686,27 +1777,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Avg ±9</t>
+          <t>Avg ±10 lines</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>91.9%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Incomplete Comparison</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>89/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1941,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1878,7 +1969,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1895,12 +1986,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>All gates passed with acceptable confidence</t>
         </is>
       </c>
     </row>
@@ -1917,7 +2008,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>One or more gates failed</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2176,7 @@
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -2151,7 +2242,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2264,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2286,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2308,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2234,12 +2325,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2256,12 +2347,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2300,12 +2391,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2418,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2440,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>89/100</t>
         </is>
       </c>
     </row>
@@ -2375,8 +2466,8 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2414,22 +2505,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-9 / -2.8%</t>
+          <t>+12 (+5.3%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minor change</t>
+          <t>Minor Increase</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2547,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>No Change</t>
         </is>
       </c>
     </row>
@@ -2468,22 +2559,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>No Change</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2601,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>All modified</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2623,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>All files</t>
+          <t>Analyzer, Documentation</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2650,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Plan</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2704,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>91.9%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2739,7 @@
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2696,17 +2787,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Analyzer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_bigquery_documentation.txt</t>
+          <t>di_azure_synapse_to_bigquery_analyzer.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2716,39 +2807,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±9</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>92/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analyzer</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_bigquery_analyzer.txt</t>
+          <t>di_azure_synapse_to_bigquery_documentation.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2758,22 +2849,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±11</t>
+          <t>±9</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>95.8%</t>
+          <t>92.2%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2795,27 +2886,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>98.3%</t>
+          <t>89.8%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>84/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2839,9 +2930,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
-    <col width="48" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="2" max="2"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2874,12 +2965,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_bigquery_documentation.txt</t>
+          <t>di_azure_synapse_to_bigquery_analyzer.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2896,17 +2987,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+3 / +2.6%</t>
+          <t>+8 (+11.1%)</t>
         </is>
       </c>
     </row>
@@ -2940,12 +3031,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2962,12 +3053,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2989,7 +3080,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3011,7 +3102,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3033,7 +3124,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3060,7 +3151,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3173,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>92/100</t>
         </is>
       </c>
     </row>
